--- a/Documentation/Sénario.xlsx
+++ b/Documentation/Sénario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\1ère année\3ème trimestre\Modules aplications\MA-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\BatailleNavale\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>Jouer</t>
   </si>
@@ -35,120 +35,33 @@
     <t>Réaction</t>
   </si>
   <si>
-    <t>Lance le jeu</t>
-  </si>
-  <si>
     <t>Lance une partie</t>
   </si>
   <si>
-    <t>Affiche la carte et les scores</t>
-  </si>
-  <si>
-    <t>Insère des coordonée</t>
-  </si>
-  <si>
-    <t>Les coordonée sont elles valide ?</t>
-  </si>
-  <si>
     <t>oui</t>
   </si>
   <si>
     <t>non</t>
   </si>
   <si>
-    <t>Repose la question</t>
-  </si>
-  <si>
-    <t>Il y a encore des bateau ?</t>
-  </si>
-  <si>
-    <t>sa touche le bateau</t>
-  </si>
-  <si>
-    <t>Retourn a "insère des coordonée</t>
-  </si>
-  <si>
-    <t>Affiche l'écran de fin</t>
-  </si>
-  <si>
-    <t>Montre le tableau des scores</t>
-  </si>
-  <si>
-    <t>Presse une touche</t>
-  </si>
-  <si>
     <t>Condition</t>
   </si>
   <si>
-    <t>Va dans règle</t>
-  </si>
-  <si>
     <t>Affiche le menu des règle</t>
   </si>
   <si>
-    <t>"Système pause"</t>
-  </si>
-  <si>
-    <t>&gt;menu</t>
-  </si>
-  <si>
-    <t>Demande a t'authentifier</t>
-  </si>
-  <si>
-    <t>Affiche le menu d'authentifiquation</t>
-  </si>
-  <si>
-    <t>Rentre ton pseudo</t>
-  </si>
-  <si>
-    <t>si il est trop grand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">repose la question </t>
-  </si>
-  <si>
-    <t>si ok</t>
-  </si>
-  <si>
-    <t>Enregistre le nom</t>
-  </si>
-  <si>
     <t>Affiche un message de confirmation</t>
   </si>
   <si>
-    <t>"Sytème pause"</t>
-  </si>
-  <si>
-    <t>Presse sur une touche</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si presse n </t>
-  </si>
-  <si>
-    <t>si presse o</t>
-  </si>
-  <si>
-    <t>&gt;Menu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repose la question </t>
-  </si>
-  <si>
     <t>Demande le menu des scores</t>
   </si>
   <si>
     <t>Affiche le menu des score</t>
   </si>
   <si>
-    <t>mets en pause le programme</t>
-  </si>
-  <si>
     <t>retourne au menu</t>
   </si>
   <si>
-    <t>Appuille sur enter</t>
-  </si>
-  <si>
     <t>Aide</t>
   </si>
   <si>
@@ -156,6 +69,81 @@
   </si>
   <si>
     <t>Score</t>
+  </si>
+  <si>
+    <t>Mets en pause le programme</t>
+  </si>
+  <si>
+    <t>si le pseudo ne fait pas 3 lettres</t>
+  </si>
+  <si>
+    <t>si le pseudo fait 3 lettres</t>
+  </si>
+  <si>
+    <t>lance le programme</t>
+  </si>
+  <si>
+    <t>demande un pseudo</t>
+  </si>
+  <si>
+    <t>entre un pseudo</t>
+  </si>
+  <si>
+    <t>redemande un pseudo de 3 lettres</t>
+  </si>
+  <si>
+    <t>Confirme le message</t>
+  </si>
+  <si>
+    <t>affiche le menu principale</t>
+  </si>
+  <si>
+    <t>affiche la grille</t>
+  </si>
+  <si>
+    <t>demande des coordonnées</t>
+  </si>
+  <si>
+    <t>insert des coordonnées</t>
+  </si>
+  <si>
+    <t>choisi l'authentification</t>
+  </si>
+  <si>
+    <t>choisi les règles</t>
+  </si>
+  <si>
+    <t>appuie sur enter</t>
+  </si>
+  <si>
+    <t>coordonnées correcte?</t>
+  </si>
+  <si>
+    <t>redemande des coordonnées</t>
+  </si>
+  <si>
+    <t>coordonnées sur une partie d'un bateau?</t>
+  </si>
+  <si>
+    <t>affiche la case en grise</t>
+  </si>
+  <si>
+    <t>reste t'il des bateau?</t>
+  </si>
+  <si>
+    <t>affiche la case de la coordonnées en rouge</t>
+  </si>
+  <si>
+    <t>termine la partie</t>
+  </si>
+  <si>
+    <t>demande si il veut enregistrer son score</t>
+  </si>
+  <si>
+    <t>enregistre le score</t>
+  </si>
+  <si>
+    <t>c'est déjà authentifier</t>
   </si>
 </sst>
 </file>
@@ -256,24 +244,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="20">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -286,6 +310,15 @@
         <b/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -301,48 +334,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:D14" totalsRowShown="0" headerRowDxfId="4" dataDxfId="0">
-  <autoFilter ref="B3:D14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B3:D18" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B3:D18"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Action" dataDxfId="3"/>
-    <tableColumn id="2" name="Condition" dataDxfId="2"/>
-    <tableColumn id="3" name="Réaction" dataDxfId="1"/>
+    <tableColumn id="1" name="Action" dataDxfId="19"/>
+    <tableColumn id="2" name="Condition" dataDxfId="18"/>
+    <tableColumn id="3" name="Réaction" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B18:D21" totalsRowShown="0">
-  <autoFilter ref="B18:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B24:D28" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="B24:D28"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Action"/>
-    <tableColumn id="2" name="Condition"/>
-    <tableColumn id="3" name="Réaction"/>
+    <tableColumn id="1" name="Action" dataDxfId="14"/>
+    <tableColumn id="2" name="Condition" dataDxfId="13"/>
+    <tableColumn id="3" name="Réaction" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B24:D31" totalsRowShown="0">
-  <autoFilter ref="B24:D31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B32:D37" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B32:D37"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Action"/>
-    <tableColumn id="2" name="Condition"/>
-    <tableColumn id="3" name="Réaction"/>
+    <tableColumn id="1" name="Action" dataDxfId="9"/>
+    <tableColumn id="2" name="Condition" dataDxfId="8"/>
+    <tableColumn id="3" name="Réaction" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="B34:D37" totalsRowShown="0">
-  <autoFilter ref="B34:D37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="B41:D45" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B41:D45"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Action"/>
-    <tableColumn id="2" name="Condition"/>
-    <tableColumn id="3" name="Réaction"/>
+    <tableColumn id="1" name="Action" dataDxfId="4"/>
+    <tableColumn id="2" name="Condition" dataDxfId="3"/>
+    <tableColumn id="3" name="Réaction" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -611,21 +644,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D37"/>
+  <dimension ref="B1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -637,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
@@ -645,256 +682,315 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="22" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="4" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="2:4" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
+      <c r="C45" s="1"/>
+      <c r="D45" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B40:D40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
